--- a/docs/log_aprem.xlsx
+++ b/docs/log_aprem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BA90A4-DBED-479C-B8B8-626F9DF503D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A843BD-7CC2-4529-895A-641D92D9F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{33E53BC4-5C3C-4B04-A03C-48B48E6476DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{33E53BC4-5C3C-4B04-A03C-48B48E6476DF}"/>
   </bookViews>
   <sheets>
     <sheet name="15_06" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="19_06" sheetId="4" r:id="rId3"/>
     <sheet name="20_06" sheetId="3" r:id="rId4"/>
     <sheet name="21_06" sheetId="5" r:id="rId5"/>
+    <sheet name="22-23_06" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil1 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +156,30 @@
   </si>
   <si>
     <t>Night (</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>NUIT</t>
+  </si>
+  <si>
+    <t>Need a locate after it because no locate done after the morning program</t>
+  </si>
+  <si>
+    <t>located</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>01h30</t>
+  </si>
+  <si>
+    <t>WEEKEND</t>
   </si>
 </sst>
 </file>
@@ -3549,7 +3575,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5064,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395884F2-0C41-4073-ACF5-6BAA39D3A94F}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5552,10 +5578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C00E39A-C1AE-4601-9F25-5FFD0BCFC0A5}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5640,20 +5666,2216 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45094</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>45098</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5083333333333333</v>
+      </c>
       <c r="C2" s="3">
         <v>585</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3">
+        <v>577</v>
+      </c>
+      <c r="F2" s="3">
+        <v>598.53</v>
+      </c>
+      <c r="G2" s="3">
+        <v>701.74</v>
+      </c>
+      <c r="H2" s="3">
+        <v>577</v>
+      </c>
+      <c r="I2" s="3">
+        <v>723.02</v>
+      </c>
+      <c r="J2" s="3">
+        <v>577.02</v>
+      </c>
+      <c r="K2" s="3">
+        <v>722.91</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <f>J2+K2</f>
+        <v>1299.9299999999998</v>
+      </c>
+      <c r="R2" s="3">
+        <v>-2.27</v>
+      </c>
+      <c r="S2" s="3">
+        <v>-8</v>
+      </c>
+      <c r="T2" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C3" s="5">
+        <v>577</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>585</v>
+      </c>
+      <c r="F3" s="5">
+        <f>J2</f>
+        <v>577.02</v>
+      </c>
+      <c r="G3" s="5">
+        <f>K2</f>
+        <v>722.91</v>
+      </c>
+      <c r="H3" s="5">
+        <f>E3</f>
+        <v>585</v>
+      </c>
+      <c r="I3" s="5">
+        <v>714.96</v>
+      </c>
+      <c r="J3" s="5">
+        <v>586.77</v>
+      </c>
+      <c r="K3" s="5">
+        <v>713.22</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C5" s="3">
+        <v>585</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>577</v>
+      </c>
+      <c r="F5" s="3">
+        <f>J3</f>
+        <v>586.77</v>
+      </c>
+      <c r="G5" s="3">
+        <f>K3</f>
+        <v>713.22</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5</f>
+        <v>577</v>
+      </c>
+      <c r="I5" s="3">
+        <v>722.99</v>
+      </c>
+      <c r="J5" s="3">
+        <v>576.91999999999996</v>
+      </c>
+      <c r="K5" s="3">
+        <v>723.03</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
         <v>20</v>
       </c>
+      <c r="N5" s="3">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q12" si="0">J5+K5</f>
+        <v>1299.9499999999998</v>
+      </c>
+      <c r="R5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>-8</v>
+      </c>
+      <c r="T5" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C12" si="1">E5</f>
+        <v>577</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>557</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:G12" si="2">J5</f>
+        <v>576.91999999999996</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>723.03</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H8" si="3">E6</f>
+        <v>557</v>
+      </c>
+      <c r="I6" s="3">
+        <v>742.95</v>
+      </c>
+      <c r="J6" s="3">
+        <v>556.98</v>
+      </c>
+      <c r="K6" s="3">
+        <v>742.95</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6</v>
+      </c>
+      <c r="O6" s="3">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.93</v>
+      </c>
+      <c r="R6" s="3">
+        <v>-2.02</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>516</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>556.98</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>742.95</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="I7" s="3">
+        <v>783.92</v>
+      </c>
+      <c r="J7" s="3">
+        <v>515.99</v>
+      </c>
+      <c r="K7" s="3">
+        <v>783.96</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>23</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.95</v>
+      </c>
+      <c r="R7" s="3">
+        <v>-1.76</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-7</v>
+      </c>
+      <c r="T7" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>453</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>515.99</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>783.96</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="I8" s="3">
+        <v>846.94</v>
+      </c>
+      <c r="J8" s="3">
+        <v>453.02</v>
+      </c>
+      <c r="K8" s="3">
+        <v>846.92</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.94</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-1.51</v>
+      </c>
+      <c r="S8" s="3">
+        <v>-7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>516</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>453.02</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>846.92</v>
+      </c>
+      <c r="H9" s="5">
+        <f>E9</f>
+        <v>516</v>
+      </c>
+      <c r="I9" s="5">
+        <v>783.95</v>
+      </c>
+      <c r="J9" s="5">
+        <v>516.05999999999995</v>
+      </c>
+      <c r="K9" s="5">
+        <v>783.81</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
+        <v>1299.8699999999999</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <v>557</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>516.05999999999995</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>783.81</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H12" si="4">E10</f>
+        <v>557</v>
+      </c>
+      <c r="I10" s="5">
+        <v>742.85</v>
+      </c>
+      <c r="J10" s="5">
+        <v>556.77</v>
+      </c>
+      <c r="K10" s="5">
+        <v>743.01</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5">
+        <f t="shared" si="0"/>
+        <v>1299.78</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
+        <v>-6</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
+        <v>577</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>556.77</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>743.01</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>577</v>
+      </c>
+      <c r="I11" s="5">
+        <v>722.79</v>
+      </c>
+      <c r="J11" s="5">
+        <v>577.16</v>
+      </c>
+      <c r="K11" s="5">
+        <v>722.61</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5">
+        <v>16</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
+        <v>1299.77</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>-0.26</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>585</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>577.16</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>722.61</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="I12" s="5">
+        <v>714.74</v>
+      </c>
+      <c r="J12" s="5">
+        <v>585.13</v>
+      </c>
+      <c r="K12" s="5">
+        <v>714.63</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5">
+        <v>15</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>1299.76</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>-0.24</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>585</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>453</v>
+      </c>
+      <c r="F14" s="3">
+        <f>J12</f>
+        <v>585.13</v>
+      </c>
+      <c r="G14" s="3">
+        <f>K12</f>
+        <v>714.63</v>
+      </c>
+      <c r="H14" s="3">
+        <f>E14</f>
+        <v>453</v>
+      </c>
+      <c r="I14" s="3">
+        <v>846.76</v>
+      </c>
+      <c r="J14" s="3">
+        <v>453</v>
+      </c>
+      <c r="K14" s="3">
+        <v>846.74</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
+        <f t="shared" ref="Q14" si="5">J14+K14</f>
+        <v>1299.74</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-0.91</v>
+      </c>
+      <c r="S14" s="3">
+        <v>-7</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <f>E14</f>
+        <v>453</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5">
+        <v>516</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:G17" si="6">J14</f>
+        <v>453</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="6"/>
+        <v>846.74</v>
+      </c>
+      <c r="H15" s="5">
+        <v>783.78</v>
+      </c>
+      <c r="I15" s="5">
+        <v>783.78</v>
+      </c>
+      <c r="J15" s="5">
+        <v>515.91999999999996</v>
+      </c>
+      <c r="K15" s="5">
+        <v>783.77</v>
+      </c>
+      <c r="L15" s="5">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5">
+        <v>6</v>
+      </c>
+      <c r="N15" s="5">
+        <v>17</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>J15+K15</f>
+        <v>1299.69</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>-0.31</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="C16" s="5">
+        <f>E15</f>
+        <v>516</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5">
+        <v>557</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>515.91999999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="6"/>
+        <v>783.77</v>
+      </c>
+      <c r="H16" s="5">
+        <f>E16</f>
+        <v>557</v>
+      </c>
+      <c r="I16" s="5">
+        <v>742.56</v>
+      </c>
+      <c r="J16" s="5">
+        <v>556.48</v>
+      </c>
+      <c r="K16" s="5">
+        <v>742.99</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5">
+        <v>6</v>
+      </c>
+      <c r="N16" s="5">
+        <v>18</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>J16+K16</f>
+        <v>1299.47</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
+        <v>-3</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C17" s="5">
+        <f>E16</f>
+        <v>557</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5">
+        <v>585</v>
+      </c>
+      <c r="F17" s="5">
+        <v>556.45000000000005</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="6"/>
+        <v>742.99</v>
+      </c>
+      <c r="H17" s="5">
+        <v>585</v>
+      </c>
+      <c r="I17" s="5">
+        <v>714.45</v>
+      </c>
+      <c r="J17" s="5">
+        <v>584.57000000000005</v>
+      </c>
+      <c r="K17" s="5">
+        <v>714.87</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
+        <v>19</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
+        <f>J17+K17</f>
+        <v>1299.44</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <v>605</v>
+      </c>
+      <c r="F22" s="5">
+        <f>J18</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>605</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E27ED-8BF6-4806-AA40-3FB99E82451F}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C2" s="3">
+        <v>585</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="3">
-        <v>577</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>516</v>
+      </c>
+      <c r="F2" s="3">
+        <v>584.85</v>
+      </c>
+      <c r="G2" s="3">
+        <v>715.08</v>
+      </c>
+      <c r="H2" s="3">
+        <f>E2</f>
+        <v>516</v>
+      </c>
+      <c r="I2" s="3">
+        <v>777.75</v>
+      </c>
+      <c r="J2" s="3">
+        <v>515.95000000000005</v>
+      </c>
+      <c r="K2" s="3">
+        <v>777.7</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <f>J2+K2</f>
+        <v>1293.6500000000001</v>
+      </c>
+      <c r="R2" s="3">
+        <v>-0.39</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <v>-6.31</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C3" s="3">
+        <f>E2</f>
+        <v>516</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>557</v>
+      </c>
+      <c r="F3" s="3">
+        <f>J2</f>
+        <v>515.95000000000005</v>
+      </c>
+      <c r="G3" s="3">
+        <f>K2</f>
+        <v>777.7</v>
+      </c>
+      <c r="H3" s="3">
+        <v>557</v>
+      </c>
+      <c r="I3" s="3">
+        <v>742.98</v>
+      </c>
+      <c r="J3" s="3">
+        <v>557.02</v>
+      </c>
+      <c r="K3" s="3">
+        <v>742.93</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q18" si="0">J3+K3</f>
+        <v>1299.9499999999998</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4" si="1">E3</f>
+        <v>557</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>577</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:G4" si="2">J3</f>
+        <v>557.02</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>742.93</v>
+      </c>
+      <c r="H4" s="3">
+        <v>577</v>
+      </c>
+      <c r="I4" s="3">
+        <v>722.95</v>
+      </c>
+      <c r="J4" s="3">
+        <v>577.14</v>
+      </c>
+      <c r="K4" s="3">
+        <v>722.79</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.9299999999998</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C5" s="3">
+        <v>577</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3">
+        <v>557</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:G9" si="3">J4</f>
+        <v>577.14</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>722.79</v>
+      </c>
+      <c r="H5" s="3">
+        <v>557</v>
+      </c>
+      <c r="I5" s="3">
+        <v>742.93</v>
+      </c>
+      <c r="J5" s="3">
+        <v>556.94000000000005</v>
+      </c>
+      <c r="K5" s="3">
+        <v>742.95</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.8900000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>-0.62</v>
+      </c>
+      <c r="S5" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T5" s="3">
+        <v>-0.11</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C6" s="5">
+        <v>557</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>577</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>556.94000000000005</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>742.95</v>
+      </c>
+      <c r="H6" s="5">
+        <v>577</v>
+      </c>
+      <c r="I6" s="5">
+        <v>722.86</v>
+      </c>
+      <c r="J6" s="5">
+        <v>576.97</v>
+      </c>
+      <c r="K6" s="5">
+        <v>722.91</v>
+      </c>
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.8800000000001</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="C7" s="5">
+        <v>577</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>516</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>576.97</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>722.91</v>
+      </c>
+      <c r="H7" s="5">
+        <f>E7</f>
+        <v>516</v>
+      </c>
+      <c r="I7" s="5">
+        <v>515.97</v>
+      </c>
+      <c r="J7" s="5">
+        <v>516.01</v>
+      </c>
+      <c r="K7" s="5">
+        <v>783.9</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5">
+        <v>25</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.9099999999999</v>
+      </c>
+      <c r="R7" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="S7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="T7" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="C8" s="5">
+        <f>E7</f>
+        <v>516</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5">
+        <v>416</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>516.01</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>783.9</v>
+      </c>
+      <c r="H8" s="5">
+        <f>E8</f>
+        <v>416</v>
+      </c>
+      <c r="I8" s="5">
+        <v>846.91</v>
+      </c>
+      <c r="J8" s="5">
+        <v>452.99</v>
+      </c>
+      <c r="K8" s="5">
+        <v>846.93</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>25</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.92</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>-4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="C9" s="5">
+        <v>453</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
+        <v>516</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>452.99</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>846.93</v>
+      </c>
+      <c r="H9" s="5">
+        <f>E9</f>
+        <v>516</v>
+      </c>
+      <c r="I9" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J9" s="5">
+        <v>517.15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>782.66</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.81</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="C10" s="5">
+        <f>E9</f>
+        <v>516</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5">
+        <v>557</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F18" si="4">J9</f>
+        <v>517.15</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G18" si="5">K9</f>
+        <v>782.66</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H18" si="6">E10</f>
+        <v>557</v>
+      </c>
+      <c r="I10" s="5">
+        <v>742.8</v>
+      </c>
+      <c r="J10" s="5">
+        <v>557.07000000000005</v>
+      </c>
+      <c r="K10" s="5">
+        <v>742.66</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>16</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3">
+        <f>J10+K10</f>
+        <v>1299.73</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="C11" s="5">
+        <v>455</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5">
+        <v>577</v>
+      </c>
+      <c r="F11" s="5">
+        <f>J10</f>
+        <v>557.07000000000005</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="5"/>
+        <v>742.66</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>577</v>
+      </c>
+      <c r="I11" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J11" s="5">
+        <v>576.78</v>
+      </c>
+      <c r="K11" s="5">
+        <v>722.94</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5">
+        <v>15</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.72</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>-0.27</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="C12" s="5">
+        <v>456</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>519</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="4"/>
+        <v>576.78</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>722.94</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="I12" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J12" s="5">
+        <v>605.11</v>
+      </c>
+      <c r="K12" s="5">
+        <v>694.63</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5">
+        <v>6</v>
+      </c>
+      <c r="N12" s="5">
+        <v>14</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>1299.74</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>-0.26</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>457</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5">
+        <v>520</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>605.11</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>694.63</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="I13" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>4</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>458</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>521</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+      <c r="I14" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>459</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5">
+        <v>522</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="I15" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>460</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>523</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="I16" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>461</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5">
+        <v>524</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="I17" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>462</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>525</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="I18" s="5">
+        <v>783.93</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>4</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <v>605</v>
+      </c>
+      <c r="F28" s="5">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f>K27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="5">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A17CC3-5F9A-4E63-9005-C5162E72A048}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="C2" s="3">
+        <v>585</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>577</v>
+      </c>
+      <c r="F2" s="3">
+        <v>584.85</v>
+      </c>
+      <c r="G2" s="3">
+        <v>715.08</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5975,11 +8197,11 @@
         <v>577</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>J9</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
+        <f>K9</f>
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
@@ -6293,7 +8515,9 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>0.65138888888888891</v>
+      </c>
       <c r="C20" s="3">
         <v>585</v>
       </c>
@@ -6304,11 +8528,11 @@
         <v>577</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
+        <f>J18</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="2"/>
+        <f>K18</f>
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
@@ -6632,21 +8856,21 @@
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="H28" s="5">
-        <v>605</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/log_aprem.xlsx
+++ b/docs/log_aprem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A843BD-7CC2-4529-895A-641D92D9F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB63C59-BB0E-476B-8072-DD7CA46F2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{33E53BC4-5C3C-4B04-A03C-48B48E6476DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{33E53BC4-5C3C-4B04-A03C-48B48E6476DF}"/>
   </bookViews>
   <sheets>
     <sheet name="15_06" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,21 @@
   <si>
     <t>WEEKEND</t>
   </si>
+  <si>
+    <t>On a fermé le flux pour laisser de la glace se former pendant 10min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On flush pour redescendre l'humidité à 11:14 (60), </t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>On a eteind gN2 flushing</t>
+  </si>
+  <si>
+    <t>On souffle de l'air humide dedans et on attend un peu pour voir si glace bloque la source</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -242,6 +257,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6564,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E27ED-8BF6-4806-AA40-3FB99E82451F}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -7775,13 +7792,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A17CC3-5F9A-4E63-9005-C5162E72A048}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="77.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7856,1021 +7876,1223 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45099</v>
+        <v>45110</v>
       </c>
       <c r="B2" s="2">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="C2" s="3">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="C2" s="8">
         <v>585</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8">
+        <v>453</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8">
+        <f>E2</f>
+        <v>453</v>
+      </c>
+      <c r="I2" s="8">
+        <v>842.62</v>
+      </c>
+      <c r="J2" s="8">
+        <v>452.89</v>
+      </c>
+      <c r="K2" s="8">
+        <v>842.64</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
-        <v>577</v>
-      </c>
-      <c r="F2" s="3">
-        <v>584.85</v>
-      </c>
-      <c r="G2" s="3">
-        <v>715.08</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="N2" s="8">
+        <v>6</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8">
+        <f>J2+K2</f>
+        <v>1295.53</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8">
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C3" s="8">
+        <f>E2</f>
+        <v>453</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8">
+        <v>585</v>
+      </c>
+      <c r="F3" s="8">
+        <f>J2</f>
+        <v>452.89</v>
+      </c>
+      <c r="G3" s="8">
+        <f>K2</f>
+        <v>842.64</v>
+      </c>
+      <c r="H3" s="8">
+        <f>E3</f>
+        <v>585</v>
+      </c>
+      <c r="I3" s="8">
+        <v>710.52</v>
+      </c>
+      <c r="J3" s="8">
+        <v>580.77</v>
+      </c>
+      <c r="K3" s="8">
+        <v>714.65</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>7</v>
+      </c>
+      <c r="N3" s="8">
+        <v>14</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8">
+        <v>-4.59</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C4" s="8">
+        <v>585</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8">
+        <v>453</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F5" si="0">J3</f>
+        <v>580.77</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G5" si="1">K3</f>
+        <v>714.65</v>
+      </c>
+      <c r="H4" s="8">
+        <v>453</v>
+      </c>
+      <c r="I4" s="8">
+        <v>841.97</v>
+      </c>
+      <c r="J4" s="8">
+        <v>452.97</v>
+      </c>
+      <c r="K4" s="8">
+        <v>841.95</v>
+      </c>
+      <c r="L4" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
-        <f>J2+K2</f>
+      <c r="M4" s="8">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6</v>
+      </c>
+      <c r="O4" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8">
+        <v>-5.08</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="C5" s="8">
+        <v>453</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>585</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>452.97</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>841.95</v>
+      </c>
+      <c r="H5" s="8">
+        <v>585</v>
+      </c>
+      <c r="I5" s="8">
+        <v>709.92</v>
+      </c>
+      <c r="J5" s="8">
+        <v>580.21</v>
+      </c>
+      <c r="K5" s="8">
+        <v>714.61</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8">
+        <v>14</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>-5.2</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C6" s="8">
+        <v>585</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8">
+        <v>453</v>
+      </c>
+      <c r="F6" s="8">
+        <f>J5</f>
+        <v>580.21</v>
+      </c>
+      <c r="G6" s="8">
+        <f>K5</f>
+        <v>714.61</v>
+      </c>
+      <c r="H6" s="8">
+        <v>453</v>
+      </c>
+      <c r="I6" s="8">
+        <v>841.8</v>
+      </c>
+      <c r="J6" s="8">
+        <v>452.94</v>
+      </c>
+      <c r="K6" s="8">
+        <v>841</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8">
+        <v>6</v>
+      </c>
+      <c r="O6" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <v>-5.26</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C7" s="8">
+        <v>453</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>585</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7" si="2">J6</f>
+        <v>452.94</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7" si="3">K6</f>
+        <v>841</v>
+      </c>
+      <c r="H7" s="8">
+        <v>585</v>
+      </c>
+      <c r="I7" s="8">
+        <v>709.74</v>
+      </c>
+      <c r="J7" s="8">
+        <v>580.07000000000005</v>
+      </c>
+      <c r="K7" s="8">
+        <v>714.56</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>7</v>
+      </c>
+      <c r="N7" s="8">
+        <v>15</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>-5.37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>585</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
+        <v>453</v>
+      </c>
+      <c r="F8" s="8">
+        <f>J7</f>
+        <v>580.07000000000005</v>
+      </c>
+      <c r="G8" s="8">
+        <f>K7</f>
+        <v>714.56</v>
+      </c>
+      <c r="H8" s="8">
+        <v>453</v>
+      </c>
+      <c r="I8" s="8">
+        <v>841.64</v>
+      </c>
+      <c r="J8" s="8">
+        <v>452.92</v>
+      </c>
+      <c r="K8" s="8">
+        <v>841.07</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>19</v>
+      </c>
+      <c r="N8" s="8">
+        <v>7</v>
+      </c>
+      <c r="O8" s="8">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
+        <v>-5.42</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>585</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F22" si="4">J8</f>
+        <v>452.92</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:G22" si="5">K8</f>
+        <v>841.07</v>
+      </c>
+      <c r="H9" s="8">
+        <v>585</v>
+      </c>
+      <c r="I9" s="8">
+        <v>709.39</v>
+      </c>
+      <c r="J9" s="8">
+        <v>579.54999999999995</v>
+      </c>
+      <c r="K9" s="8">
+        <v>714.71</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>6</v>
+      </c>
+      <c r="N9" s="8">
+        <v>16</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C11" s="8">
+        <v>585</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>453</v>
+      </c>
+      <c r="F11" s="8">
+        <f>J9</f>
+        <v>579.54999999999995</v>
+      </c>
+      <c r="G11" s="8">
+        <f>K9</f>
+        <v>714.71</v>
+      </c>
+      <c r="H11" s="8">
+        <v>453</v>
+      </c>
+      <c r="I11" s="8">
+        <v>841.27</v>
+      </c>
+      <c r="J11" s="8">
+        <v>453</v>
+      </c>
+      <c r="K11" s="8">
+        <v>841.15</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>25</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8">
+        <v>42</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8">
+        <v>-5.81</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="C12" s="8">
+        <f>E11</f>
+        <v>453</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <f>C11</f>
+        <v>585</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>453</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>841.15</v>
+      </c>
+      <c r="H12" s="8">
+        <f>E12</f>
+        <v>585</v>
+      </c>
+      <c r="I12" s="8">
+        <v>709.17</v>
+      </c>
+      <c r="J12" s="8">
+        <v>579.45000000000005</v>
+      </c>
+      <c r="K12" s="8">
+        <v>714.6</v>
+      </c>
+      <c r="L12" s="8">
+        <v>4</v>
+      </c>
+      <c r="M12" s="8">
+        <v>7</v>
+      </c>
+      <c r="N12" s="8">
+        <v>16</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
+        <v>-5.95</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:C22" si="6">E12</f>
+        <v>585</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E22" si="7">C12</f>
+        <v>453</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:F22" si="8">J12</f>
+        <v>579.45000000000005</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13:G22" si="9">K12</f>
+        <v>714.6</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" ref="H13:H22" si="10">E13</f>
+        <v>453</v>
+      </c>
+      <c r="I13" s="8">
+        <v>841.05</v>
+      </c>
+      <c r="J13" s="8">
+        <v>452.98</v>
+      </c>
+      <c r="K13" s="8">
+        <v>841.02</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>24</v>
+      </c>
+      <c r="N13" s="8">
+        <v>6</v>
+      </c>
+      <c r="O13" s="8">
+        <v>30</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8">
+        <v>-6.03</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="6"/>
+        <v>453</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="8"/>
+        <v>452.98</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="9"/>
+        <v>841.02</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="10"/>
+        <v>585</v>
+      </c>
+      <c r="I14" s="8">
+        <v>708.98</v>
+      </c>
+      <c r="J14" s="8">
+        <v>579.11</v>
+      </c>
+      <c r="K14" s="8">
+        <v>714.75</v>
+      </c>
+      <c r="L14" s="8">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8">
+        <v>7</v>
+      </c>
+      <c r="N14" s="8">
+        <v>16</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8">
+        <v>-6.2</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="6"/>
+        <v>585</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>579.11</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="9"/>
+        <v>714.75</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="10"/>
+        <v>453</v>
+      </c>
+      <c r="I15" s="8">
+        <v>840.82</v>
+      </c>
+      <c r="J15" s="8">
+        <v>453</v>
+      </c>
+      <c r="K15" s="8">
+        <v>840.75</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>22</v>
+      </c>
+      <c r="N15" s="8">
+        <v>6</v>
+      </c>
+      <c r="O15" s="8">
+        <v>29</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8">
+        <v>-6.24</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="6"/>
+        <v>453</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>516</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>453</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="9"/>
+        <v>840.75</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="I16" s="8">
+        <v>777.74</v>
+      </c>
+      <c r="J16" s="8">
+        <v>509.96</v>
+      </c>
+      <c r="K16" s="8">
+        <v>783.9</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8">
+        <v>5</v>
+      </c>
+      <c r="N16" s="8">
+        <v>18</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8">
+        <v>-6.14</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <f t="shared" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>509.96</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="9"/>
+        <v>783.9</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="10"/>
+        <v>453</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <f t="shared" si="6"/>
+        <v>453</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="7"/>
+        <v>516</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C3" s="3">
-        <f>E2</f>
-        <v>577</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>557</v>
-      </c>
-      <c r="F3" s="3">
-        <f>J2</f>
+      <c r="G18" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <f>K2</f>
+      <c r="H18" s="8">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <f t="shared" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q27" si="0">J3+K3</f>
+      <c r="G19" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C27" si="1">E3</f>
-        <v>557</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="H19" s="8">
+        <f t="shared" si="10"/>
+        <v>453</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="8">
+        <f t="shared" si="6"/>
+        <v>453</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:G27" si="2">J3</f>
+      <c r="F20" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="2"/>
+      <c r="G20" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <f t="shared" si="0"/>
+      <c r="H20" s="8">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="8">
+        <f t="shared" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
+      <c r="G21" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="10"/>
+        <v>453</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="8">
+        <f t="shared" si="6"/>
+        <v>453</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>453</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="2"/>
+      <c r="F22" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" si="2"/>
+      <c r="G22" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="H22" s="8">
+        <f t="shared" si="10"/>
         <v>516</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <v>4</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5">
-        <v>557</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
-        <v>4</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5">
-        <v>577</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <v>4</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>585</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <v>4</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <v>585</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3">
-        <v>577</v>
-      </c>
-      <c r="F11" s="3">
-        <f>J9</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f>K9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3">
-        <v>557</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>516</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>453</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5">
-        <v>516</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>4</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5">
-        <v>557</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
-        <v>4</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="5">
-        <v>577</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>4</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5">
-        <v>585</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>4</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>0.65138888888888891</v>
-      </c>
-      <c r="C20" s="3">
-        <v>585</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3">
-        <v>577</v>
-      </c>
-      <c r="F20" s="3">
-        <f>J18</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f>K18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="3">
-        <v>557</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="3">
-        <v>516</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C23" s="3">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3">
-        <v>453</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C24" s="5">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5">
-        <v>516</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5">
-        <v>4</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="5">
-        <v>557</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5">
-        <v>4</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C26" s="5">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5">
-        <v>577</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5">
-        <v>4</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="5">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="5">
-        <v>585</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
-        <v>4</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E28" s="5">
-        <v>605</v>
-      </c>
-      <c r="F28" s="5">
-        <f>J27</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <f>K27</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="H29" s="5" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="8">
         <v>601</v>
       </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
